--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3672" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -528,7 +528,7 @@
     <t>BodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRateBodyPosition}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRatePulsBodyPosition}
 </t>
   </si>
   <si>
@@ -1035,6 +1035,9 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1093,6 +1096,39 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>HearRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.system</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.code</t>
+  </si>
+  <si>
+    <t>364075005</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HearRateSNOMEDCode.userSelected</t>
+  </si>
+  <si>
     <t>Observation.code.text</t>
   </si>
   <si>
@@ -1265,7 +1301,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resolve()}
+    <t xml:space="preserve">type:type}
 </t>
   </si>
   <si>
@@ -1650,19 +1686,25 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Methods for simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
+    <t>http://hl7.no/fhir/ValueSet/NoDomianVitalSignsObservationHeartRateMeasurementMethod</t>
   </si>
   <si>
     <t>OBX-17</t>
   </si>
   <si>
     <t>methodCode</t>
+  </si>
+  <si>
+    <t>Observation.method.id</t>
+  </si>
+  <si>
+    <t>Observation.method.extension</t>
+  </si>
+  <si>
+    <t>Observation.method.coding</t>
+  </si>
+  <si>
+    <t>Observation.method.text</t>
   </si>
   <si>
     <t>Observation.specimen</t>
@@ -1854,6 +1896,9 @@
   </si>
   <si>
     <t>Need to be able to identify the target population for proper interpretation.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>Codes identifying the population the reference range applies to.</t>
@@ -2351,7 +2396,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP95"/>
+  <dimension ref="A1:AP107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2360,9 +2405,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="51.109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="58.51953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.15625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2385,7 +2430,7 @@
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.80859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.1640625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -6748,7 +6793,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6812,7 +6857,7 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6857,13 +6902,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>326</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
@@ -6981,10 +7026,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7099,10 +7144,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7219,10 +7264,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7264,7 +7309,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>80</v>
@@ -7341,10 +7386,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7461,10 +7506,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7504,7 +7549,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>80</v>
@@ -7581,10 +7626,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7701,10 +7746,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7823,18 +7868,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7849,19 +7896,19 @@
         <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>302</v>
+        <v>244</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7910,13 +7957,13 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>80</v>
@@ -7931,10 +7978,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>307</v>
+        <v>249</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>308</v>
+        <v>250</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7945,10 +7992,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7956,35 +8003,31 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
@@ -8032,7 +8075,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8044,22 +8087,22 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>353</v>
+        <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>355</v>
+        <v>234</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -8067,14 +8110,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -8090,19 +8133,19 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>238</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>361</v>
+        <v>173</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8140,19 +8183,19 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>357</v>
+        <v>240</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -8164,7 +8207,7 @@
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -8173,13 +8216,13 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>362</v>
+        <v>234</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>356</v>
+        <v>80</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -8187,18 +8230,18 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>364</v>
+        <v>80</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -8213,26 +8256,26 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>365</v>
+        <v>105</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>366</v>
+        <v>257</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>367</v>
+        <v>258</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>368</v>
+        <v>259</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>369</v>
+        <v>260</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>80</v>
+        <v>352</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8274,7 +8317,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>363</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8289,19 +8332,19 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>370</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>371</v>
+        <v>263</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>372</v>
+        <v>264</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -8309,24 +8352,24 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>374</v>
+        <v>339</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -8335,20 +8378,18 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>267</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>378</v>
+        <v>268</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8396,7 +8437,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8405,25 +8446,25 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>382</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>384</v>
+        <v>271</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>385</v>
+        <v>272</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8431,10 +8472,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8442,7 +8483,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>91</v>
@@ -8457,24 +8498,24 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>389</v>
+        <v>275</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>276</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8516,7 +8557,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>387</v>
+        <v>279</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8537,13 +8578,13 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>393</v>
+        <v>281</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>394</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8551,10 +8592,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>344</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8565,7 +8606,7 @@
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8577,17 +8618,17 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>396</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>397</v>
+        <v>284</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>398</v>
+        <v>285</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>399</v>
+        <v>286</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8624,23 +8665,25 @@
         <v>80</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="AC52" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8649,19 +8692,19 @@
         <v>103</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>402</v>
+        <v>288</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>403</v>
+        <v>289</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8669,14 +8712,12 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>405</v>
+        <v>357</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C53" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8685,7 +8726,7 @@
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8697,17 +8738,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>397</v>
+        <v>293</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="O53" t="s" s="2">
-        <v>399</v>
+        <v>296</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8756,13 +8799,13 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>395</v>
+        <v>297</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
@@ -8771,19 +8814,19 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>402</v>
+        <v>298</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>403</v>
+        <v>299</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8791,14 +8834,12 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>408</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="C54" t="s" s="2">
-        <v>409</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8807,7 +8848,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8819,17 +8860,19 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>410</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>302</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="O54" t="s" s="2">
-        <v>399</v>
+        <v>305</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8878,13 +8921,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>306</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8893,19 +8936,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>401</v>
+        <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>402</v>
+        <v>307</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>404</v>
+        <v>80</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8913,10 +8956,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8924,7 +8967,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>91</v>
@@ -8939,19 +8982,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>361</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>414</v>
+        <v>363</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>415</v>
+        <v>364</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8988,17 +9031,19 @@
         <v>80</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AC55" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9007,40 +9052,38 @@
         <v>91</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>423</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>424</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9049,10 +9092,10 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -9061,20 +9104,18 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>412</v>
+        <v>370</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>425</v>
+        <v>371</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>425</v>
+        <v>372</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9122,16 +9163,16 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>411</v>
+        <v>369</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>103</v>
@@ -9140,31 +9181,31 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>419</v>
+        <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>421</v>
+        <v>374</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>427</v>
+        <v>375</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>428</v>
+        <v>375</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9180,19 +9221,23 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9240,7 +9285,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>233</v>
+        <v>375</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9252,22 +9297,22 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>80</v>
+        <v>382</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>80</v>
+        <v>383</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>234</v>
+        <v>384</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9275,44 +9320,46 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>430</v>
+        <v>386</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>170</v>
+        <v>387</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>136</v>
+        <v>388</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>237</v>
+        <v>389</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>238</v>
+        <v>390</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -9348,46 +9395,46 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>240</v>
+        <v>386</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>80</v>
+        <v>393</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>142</v>
+        <v>394</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>80</v>
+        <v>395</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>234</v>
+        <v>397</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>80</v>
+        <v>398</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9395,10 +9442,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9406,13 +9453,13 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>80</v>
@@ -9421,20 +9468,18 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>437</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9482,7 +9527,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>438</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9503,13 +9548,13 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>439</v>
+        <v>404</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>440</v>
+        <v>405</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9517,10 +9562,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>441</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>442</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9531,36 +9576,34 @@
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>443</v>
+        <v>409</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q60" t="s" s="2">
-        <v>446</v>
-      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9580,37 +9623,35 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC60" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>449</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>80</v>
@@ -9619,19 +9660,19 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>450</v>
+        <v>414</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>451</v>
+        <v>415</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9639,24 +9680,26 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9665,17 +9708,17 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>455</v>
+        <v>410</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>456</v>
+        <v>411</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9724,13 +9767,13 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9739,19 +9782,19 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>459</v>
+        <v>415</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9759,24 +9802,26 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>407</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>421</v>
+      </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9785,24 +9830,24 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>105</v>
+        <v>422</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>462</v>
+        <v>409</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>463</v>
+        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" t="s" s="2">
-        <v>465</v>
+        <v>80</v>
       </c>
       <c r="S62" t="s" s="2">
         <v>80</v>
@@ -9844,34 +9889,34 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>80</v>
+        <v>413</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>458</v>
+        <v>414</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>80</v>
+        <v>416</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9879,10 +9924,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>469</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9890,7 +9935,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>91</v>
@@ -9905,26 +9950,26 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>111</v>
+        <v>424</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>471</v>
+        <v>425</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>472</v>
+        <v>426</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>473</v>
+        <v>427</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>474</v>
+        <v>80</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>80</v>
@@ -9954,19 +9999,17 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC63" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>80</v>
+        <v>429</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>475</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9975,7 +10018,7 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>80</v>
+        <v>430</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -9984,29 +10027,31 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>458</v>
+        <v>432</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>476</v>
+        <v>433</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>477</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>423</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10024,22 +10069,22 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>216</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>479</v>
+        <v>437</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>480</v>
+        <v>438</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>481</v>
+        <v>427</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10064,13 +10109,13 @@
         <v>80</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>482</v>
+        <v>80</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>483</v>
+        <v>80</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>80</v>
@@ -10088,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>477</v>
+        <v>423</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10097,7 +10142,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>484</v>
+        <v>430</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10106,38 +10151,38 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>80</v>
+        <v>431</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>134</v>
+        <v>432</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>485</v>
+        <v>433</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>486</v>
+        <v>439</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>486</v>
+        <v>440</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -10149,20 +10194,16 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>488</v>
+        <v>231</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10186,13 +10227,13 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>493</v>
+        <v>80</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -10210,49 +10251,49 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>486</v>
+        <v>233</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>496</v>
+        <v>234</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>498</v>
+        <v>441</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>498</v>
+        <v>442</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -10271,20 +10312,18 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>499</v>
+        <v>136</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>500</v>
+        <v>237</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>501</v>
+        <v>238</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O66" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10320,19 +10359,19 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>498</v>
+        <v>240</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -10344,7 +10383,7 @@
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -10353,10 +10392,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>504</v>
+        <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>505</v>
+        <v>234</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10367,10 +10406,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10378,33 +10417,35 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>216</v>
+        <v>445</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>508</v>
+        <v>447</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>509</v>
-      </c>
-      <c r="O67" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10428,11 +10469,13 @@
         <v>80</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y67" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z67" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>80</v>
@@ -10450,7 +10493,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>506</v>
+        <v>450</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10468,27 +10511,27 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>511</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>512</v>
+        <v>451</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>513</v>
+        <v>452</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>514</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>515</v>
+        <v>454</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10505,26 +10548,30 @@
         <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>231</v>
+        <v>455</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>232</v>
+        <v>456</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+      <c r="O68" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>458</v>
+      </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10544,13 +10591,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>80</v>
+        <v>459</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10568,7 +10615,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>233</v>
+        <v>461</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10580,7 +10627,7 @@
         <v>80</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>80</v>
@@ -10589,10 +10636,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>80</v>
+        <v>462</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>234</v>
+        <v>463</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10603,44 +10650,44 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>516</v>
+        <v>465</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>136</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>237</v>
+        <v>466</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>467</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>468</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10676,31 +10723,31 @@
         <v>80</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC69" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>240</v>
+        <v>469</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>80</v>
@@ -10709,10 +10756,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>80</v>
+        <v>470</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>234</v>
+        <v>471</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10723,10 +10770,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>517</v>
+        <v>472</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10734,13 +10781,13 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10749,26 +10796,24 @@
         <v>92</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>243</v>
+        <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>244</v>
+        <v>474</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>247</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>80</v>
+        <v>477</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>80</v>
@@ -10786,11 +10831,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="Y70" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z70" t="s" s="2">
-        <v>510</v>
+        <v>80</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10808,16 +10855,16 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>248</v>
+        <v>478</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>80</v>
+        <v>479</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10829,10 +10876,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>249</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>250</v>
+        <v>480</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10843,10 +10890,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>518</v>
+        <v>482</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10854,13 +10901,13 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
@@ -10869,26 +10916,26 @@
         <v>92</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>302</v>
+        <v>483</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>303</v>
+        <v>483</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>305</v>
+        <v>485</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>80</v>
@@ -10930,7 +10977,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>306</v>
+        <v>487</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10951,10 +10998,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>307</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>308</v>
+        <v>488</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10965,10 +11012,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10982,7 +11029,7 @@
         <v>91</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -10994,16 +11041,16 @@
         <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>521</v>
+        <v>491</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11028,13 +11075,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>524</v>
+        <v>315</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11052,7 +11099,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11061,7 +11108,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11073,10 +11120,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>527</v>
+        <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>528</v>
+        <v>497</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11087,21 +11134,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>80</v>
+        <v>499</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11113,18 +11160,20 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>530</v>
+        <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>532</v>
+        <v>501</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="O73" s="2"/>
+        <v>502</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>503</v>
+      </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11148,13 +11197,13 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>80</v>
+        <v>504</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>80</v>
+        <v>505</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11172,13 +11221,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -11190,27 +11239,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>534</v>
+        <v>506</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>535</v>
+        <v>507</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>537</v>
+        <v>509</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11221,7 +11270,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11233,18 +11282,20 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>539</v>
+        <v>511</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>540</v>
+        <v>512</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>541</v>
+        <v>513</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>514</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>515</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11292,13 +11343,13 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>538</v>
+        <v>510</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
@@ -11310,27 +11361,27 @@
         <v>80</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>543</v>
+        <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>546</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11341,7 +11392,7 @@
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11353,20 +11404,18 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>548</v>
+        <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>551</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>552</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>80</v>
       </c>
@@ -11390,13 +11439,11 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11414,45 +11461,45 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>547</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>553</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>80</v>
+        <v>523</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>80</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>556</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11567,10 +11614,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11640,16 +11687,16 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>240</v>
@@ -11687,14 +11734,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>558</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>559</v>
+        <v>80</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11707,25 +11754,25 @@
         <v>80</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>136</v>
+        <v>243</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>560</v>
+        <v>244</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>561</v>
+        <v>245</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>173</v>
+        <v>246</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>174</v>
+        <v>247</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11750,13 +11797,11 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>80</v>
+        <v>522</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11774,7 +11819,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>562</v>
+        <v>248</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11786,7 +11831,7 @@
         <v>80</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>80</v>
@@ -11795,10 +11840,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11809,10 +11854,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>563</v>
+        <v>530</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11832,19 +11877,23 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>564</v>
+        <v>230</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>565</v>
+        <v>302</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11892,7 +11941,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>563</v>
+        <v>306</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11901,7 +11950,7 @@
         <v>91</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>103</v>
@@ -11913,10 +11962,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>569</v>
+        <v>308</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11927,10 +11976,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11953,16 +12002,20 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>564</v>
+        <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>571</v>
+        <v>532</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -11986,13 +12039,11 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12010,7 +12061,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>570</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12019,7 +12070,7 @@
         <v>91</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>567</v>
+        <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>103</v>
@@ -12031,10 +12082,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>573</v>
+        <v>538</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12045,10 +12096,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>574</v>
+        <v>539</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12071,20 +12122,16 @@
         <v>80</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>575</v>
+        <v>231</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12108,13 +12155,13 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>579</v>
+        <v>80</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12132,7 +12179,7 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>574</v>
+        <v>233</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -12144,19 +12191,19 @@
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>496</v>
+        <v>234</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12167,14 +12214,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>583</v>
+        <v>540</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -12193,20 +12240,18 @@
         <v>80</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>584</v>
+        <v>237</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>585</v>
+        <v>238</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>587</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12230,31 +12275,31 @@
         <v>80</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>588</v>
+        <v>80</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>589</v>
+        <v>80</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>80</v>
+        <v>239</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>583</v>
+        <v>240</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -12266,19 +12311,19 @@
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>582</v>
+        <v>80</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>496</v>
+        <v>234</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12289,10 +12334,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>590</v>
+        <v>541</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12303,7 +12348,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12312,20 +12357,22 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>591</v>
+        <v>243</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>592</v>
+        <v>244</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O83" t="s" s="2">
-        <v>594</v>
+        <v>247</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>80</v>
@@ -12350,13 +12397,11 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>80</v>
+        <v>536</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12374,13 +12419,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>590</v>
+        <v>248</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -12395,10 +12440,10 @@
         <v>80</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>595</v>
+        <v>250</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
@@ -12409,10 +12454,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>596</v>
+        <v>542</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12432,19 +12477,23 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>230</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>597</v>
+        <v>302</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12492,7 +12541,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>596</v>
+        <v>306</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12513,10 +12562,10 @@
         <v>80</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>568</v>
+        <v>307</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>599</v>
+        <v>308</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12527,10 +12576,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12541,7 +12590,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12550,19 +12599,19 @@
         <v>80</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>602</v>
+        <v>545</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>603</v>
+        <v>546</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>604</v>
+        <v>547</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12612,13 +12661,13 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>600</v>
+        <v>543</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
@@ -12630,27 +12679,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>80</v>
+        <v>548</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>605</v>
+        <v>549</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>606</v>
+        <v>550</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>80</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12661,7 +12710,7 @@
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>80</v>
@@ -12670,19 +12719,19 @@
         <v>80</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>608</v>
+        <v>553</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>609</v>
+        <v>554</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>610</v>
+        <v>555</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>611</v>
+        <v>556</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12732,13 +12781,13 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>607</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>80</v>
@@ -12750,27 +12799,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>80</v>
+        <v>557</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>612</v>
+        <v>559</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>80</v>
+        <v>560</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12784,28 +12833,28 @@
         <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>614</v>
+        <v>563</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>614</v>
+        <v>564</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>615</v>
+        <v>565</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>616</v>
+        <v>566</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12854,7 +12903,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>613</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12866,7 +12915,7 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12875,10 +12924,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>618</v>
+        <v>568</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>619</v>
+        <v>569</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12889,10 +12938,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>620</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13007,10 +13056,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>621</v>
+        <v>571</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13127,14 +13176,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>622</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13156,10 +13205,10 @@
         <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>560</v>
+        <v>574</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>173</v>
@@ -13214,7 +13263,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>562</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13249,10 +13298,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>623</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>623</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13260,35 +13309,31 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>216</v>
+        <v>578</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>624</v>
+        <v>579</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>627</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13312,13 +13357,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13336,16 +13381,16 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>623</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>80</v>
+        <v>581</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13354,16 +13399,16 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>628</v>
+        <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>320</v>
+        <v>582</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>321</v>
+        <v>583</v>
       </c>
       <c r="AO91" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AP91" t="s" s="2">
         <v>80</v>
@@ -13371,10 +13416,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13388,29 +13433,25 @@
         <v>91</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>630</v>
+        <v>578</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>631</v>
+        <v>585</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>632</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>633</v>
-      </c>
-      <c r="O92" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13434,13 +13475,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>634</v>
+        <v>80</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>635</v>
+        <v>80</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13458,7 +13499,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>629</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13467,7 +13508,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>636</v>
+        <v>581</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13476,27 +13517,27 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>637</v>
+        <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>420</v>
+        <v>582</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>421</v>
+        <v>587</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP92" t="s" s="2">
-        <v>422</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13510,7 +13551,7 @@
         <v>91</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>80</v>
@@ -13522,16 +13563,16 @@
         <v>216</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>639</v>
+        <v>589</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>640</v>
+        <v>590</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>641</v>
+        <v>591</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>481</v>
+        <v>592</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13556,13 +13597,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>482</v>
+        <v>593</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>483</v>
+        <v>594</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13580,7 +13621,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>638</v>
+        <v>588</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13589,7 +13630,7 @@
         <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>642</v>
+        <v>80</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>103</v>
@@ -13598,13 +13639,13 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>134</v>
+        <v>596</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13615,14 +13656,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>487</v>
+        <v>80</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13644,16 +13685,16 @@
         <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>488</v>
+        <v>598</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>489</v>
+        <v>599</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>490</v>
+        <v>600</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>491</v>
+        <v>601</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13678,13 +13719,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>315</v>
+        <v>602</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>492</v>
+        <v>603</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>493</v>
+        <v>604</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13702,7 +13743,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>643</v>
+        <v>597</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13720,27 +13761,27 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>494</v>
+        <v>595</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>495</v>
+        <v>596</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP94" t="s" s="2">
-        <v>497</v>
+        <v>80</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13751,7 +13792,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13763,19 +13804,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>81</v>
+        <v>606</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>645</v>
+        <v>607</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>646</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>551</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>552</v>
+        <v>609</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13824,13 +13863,13 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>644</v>
+        <v>605</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
@@ -13845,20 +13884,1470 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>555</v>
+        <v>610</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP95" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AO96" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP96" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="AO97" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP97" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AO98" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP98" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AO99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP99" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO100" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP100" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O101" s="2"/>
+      <c r="P101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AO101" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP101" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AO102" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP102" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AO103" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AP103" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="P104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP104" t="s" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>655</v>
+      </c>
+      <c r="N105" t="s" s="2">
+        <v>656</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="P105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>653</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>657</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP105" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O106" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>658</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP106" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>661</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O107" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="P107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>659</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP107" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP95">
+  <autoFilter ref="A1:AP107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13868,7 +15357,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI94">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.5.1</t>
+    <t>0.6.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.0</t>
+    <t>0.6.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="663">
   <si>
     <t>Property</t>
   </si>
@@ -76,7 +76,7 @@
   </si>
   <si>
     <t>Base profile for Norwegian Vital Signs Observation Heart Rate information.  
-Use to record the presence or absence of a pulse or heart beat.</t>
+Use to record the presence or absence of a heart beat.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -473,7 +473,7 @@
 </t>
   </si>
   <si>
-    <t>Regularity of the pulse or heart beat.</t>
+    <t>Regularity of the  heart beat.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -506,7 +506,7 @@
 </t>
   </si>
   <si>
-    <t>Narrative description about the pulse or heart beat.</t>
+    <t>Narrative description about the heart beat.</t>
   </si>
   <si>
     <t>Observation.extension:characterOfHeartrate</t>
@@ -519,7 +519,7 @@
 </t>
   </si>
   <si>
-    <t>Description of the character of the pulse or heart beat.</t>
+    <t>Description of the character of the heart beat.</t>
   </si>
   <si>
     <t>Observation.extension:BodyPosition</t>
@@ -528,7 +528,7 @@
     <t>BodyPosition</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRatePulsBodyPosition}
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRatePulseBodyPosition}
 </t>
   </si>
   <si>
@@ -545,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t>More specific pattern of an irregular pulse or heart beat.</t>
+    <t>More specific pattern of an irregular  heart beat.</t>
   </si>
   <si>
     <t>Observation.modifierExtension</t>
@@ -1382,7 +1382,10 @@
     <t>valueQuantity</t>
   </si>
   <si>
-    <t>The rate of the pulse or heart beat, measured in beats per minute.</t>
+    <t>The rate of the  heart beat, measured in beats per minute.</t>
+  </si>
+  <si>
+    <t>The rate of the heart beat, measured in beats per minute.</t>
   </si>
   <si>
     <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the Notes section below.</t>
@@ -1686,7 +1689,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.no/fhir/ValueSet/NoDomianVitalSignsObservationHeartRateMeasurementMethod</t>
+    <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsObservationHeartRateMeasurementMethod</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -10078,10 +10081,10 @@
         <v>437</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>427</v>
@@ -10168,10 +10171,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10286,10 +10289,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10406,10 +10409,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10432,19 +10435,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10493,7 +10496,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10514,10 +10517,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10528,10 +10531,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10557,20 +10560,20 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q68" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
@@ -10594,10 +10597,10 @@
         <v>208</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10615,7 +10618,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10636,10 +10639,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10650,10 +10653,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10679,14 +10682,14 @@
         <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10735,7 +10738,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10756,10 +10759,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10770,10 +10773,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10799,21 +10802,21 @@
         <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>80</v>
@@ -10855,7 +10858,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10864,7 +10867,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10876,10 +10879,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10890,10 +10893,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10919,23 +10922,23 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>80</v>
@@ -10977,7 +10980,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10998,10 +11001,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -11012,10 +11015,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11041,16 +11044,16 @@
         <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11078,10 +11081,10 @@
         <v>315</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11099,7 +11102,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11108,7 +11111,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11123,7 +11126,7 @@
         <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11134,14 +11137,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11163,16 +11166,16 @@
         <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11200,10 +11203,10 @@
         <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11221,7 +11224,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11239,27 +11242,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11282,19 +11285,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11343,7 +11346,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11364,10 +11367,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11378,10 +11381,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11407,13 +11410,13 @@
         <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11443,7 +11446,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11461,7 +11464,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11479,27 +11482,27 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11614,10 +11617,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11734,10 +11737,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11801,7 +11804,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11854,10 +11857,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11976,10 +11979,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12005,16 +12008,16 @@
         <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12043,7 +12046,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12061,7 +12064,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12082,10 +12085,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12096,10 +12099,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12214,10 +12217,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12334,10 +12337,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12401,7 +12404,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12454,10 +12457,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12576,10 +12579,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12602,16 +12605,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12661,7 +12664,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12679,27 +12682,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12722,16 +12725,16 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12781,7 +12784,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12799,27 +12802,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12842,19 +12845,19 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12903,7 +12906,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12915,7 +12918,7 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12924,10 +12927,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12938,10 +12941,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13056,10 +13059,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13176,14 +13179,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13205,10 +13208,10 @@
         <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>173</v>
@@ -13263,7 +13266,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13298,10 +13301,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13324,13 +13327,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13381,7 +13384,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13390,7 +13393,7 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13402,10 +13405,10 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13416,10 +13419,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13442,13 +13445,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13499,7 +13502,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13508,7 +13511,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13520,10 +13523,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13534,10 +13537,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13563,16 +13566,16 @@
         <v>216</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13600,10 +13603,10 @@
         <v>115</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13621,7 +13624,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13639,13 +13642,13 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13656,10 +13659,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13685,16 +13688,16 @@
         <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13719,13 +13722,13 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
@@ -13743,7 +13746,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13761,13 +13764,13 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13778,10 +13781,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13804,17 +13807,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13863,7 +13866,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13887,7 +13890,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13898,10 +13901,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13927,10 +13930,10 @@
         <v>230</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13981,7 +13984,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14002,10 +14005,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14016,10 +14019,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14042,16 +14045,16 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14101,7 +14104,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14122,10 +14125,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14136,10 +14139,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14162,16 +14165,16 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14221,7 +14224,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14242,10 +14245,10 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14256,10 +14259,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14282,19 +14285,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14343,7 +14346,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14355,7 +14358,7 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -14364,10 +14367,10 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14378,10 +14381,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14496,10 +14499,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14616,14 +14619,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14645,10 +14648,10 @@
         <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>173</v>
@@ -14703,7 +14706,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14738,10 +14741,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14767,16 +14770,16 @@
         <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14825,7 +14828,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>91</v>
@@ -14843,7 +14846,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>320</v>
@@ -14860,10 +14863,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14886,16 +14889,16 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>427</v>
@@ -14926,10 +14929,10 @@
         <v>208</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="Z104" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
@@ -14947,7 +14950,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14956,7 +14959,7 @@
         <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>103</v>
@@ -14965,7 +14968,7 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>432</v>
@@ -14982,10 +14985,10 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15011,16 +15014,16 @@
         <v>216</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15048,10 +15051,10 @@
         <v>315</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -15069,7 +15072,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15078,7 +15081,7 @@
         <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>103</v>
@@ -15093,7 +15096,7 @@
         <v>134</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -15104,14 +15107,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15133,16 +15136,16 @@
         <v>216</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="O106" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15170,10 +15173,10 @@
         <v>315</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Z106" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
@@ -15191,7 +15194,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15209,27 +15212,27 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN106" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO106" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP106" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15255,16 +15258,16 @@
         <v>81</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O107" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15313,7 +15316,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15334,10 +15337,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AN107" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.1</t>
+    <t>0.6.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="662">
   <si>
     <t>Property</t>
   </si>
@@ -1035,9 +1035,6 @@
     <t>Observation.code.coding</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>value:code}
 value:system}</t>
   </si>
@@ -1096,37 +1093,37 @@
     <t>Observation.code.coding.userSelected</t>
   </si>
   <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode</t>
-  </si>
-  <si>
-    <t>HearRateSNOMEDCode</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.id</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.extension</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.system</t>
+    <t>Observation.code.coding:HeartRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>HeartRateSNOMEDCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.system</t>
   </si>
   <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.version</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.code</t>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.code</t>
   </si>
   <si>
     <t>364075005</t>
   </si>
   <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.display</t>
-  </si>
-  <si>
-    <t>Observation.code.coding:HearRateSNOMEDCode.userSelected</t>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:HeartRateSNOMEDCode.userSelected</t>
   </si>
   <si>
     <t>Observation.code.text</t>
@@ -2408,9 +2405,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.51953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="59.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.49609375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -6796,7 +6793,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>327</v>
+        <v>91</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>79</v>
@@ -6860,7 +6857,7 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
@@ -6905,13 +6902,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>326</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
@@ -7029,10 +7026,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B39" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7147,10 +7144,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B40" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7267,10 +7264,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7312,7 +7309,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>80</v>
@@ -7389,10 +7386,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7509,10 +7506,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B43" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7552,7 +7549,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>80</v>
@@ -7629,10 +7626,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B44" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="B44" t="s" s="2">
-        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7749,10 +7746,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="B45" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="B45" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7871,20 +7868,20 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>326</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>91</v>
@@ -7995,10 +7992,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8113,10 +8110,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8233,10 +8230,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8278,7 +8275,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8355,10 +8352,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8475,10 +8472,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8518,7 +8515,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8595,10 +8592,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8715,10 +8712,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8837,10 +8834,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8959,10 +8956,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8985,19 +8982,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="N55" t="s" s="2">
+      <c r="O55" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9046,7 +9043,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9061,19 +9058,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>368</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9081,10 +9078,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9107,16 +9104,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9166,7 +9163,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -9190,10 +9187,10 @@
         <v>320</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9201,14 +9198,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9227,19 +9224,19 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -9288,7 +9285,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9303,19 +9300,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AL57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9323,14 +9320,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9349,19 +9346,19 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="N58" t="s" s="2">
+      <c r="O58" t="s" s="2">
         <v>391</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>392</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9410,7 +9407,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -9419,25 +9416,25 @@
         <v>91</v>
       </c>
       <c r="AI58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AJ58" t="s" s="2">
+      <c r="AK58" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AL58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM58" t="s" s="2">
+      <c r="AN58" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9445,10 +9442,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9471,16 +9468,16 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9530,7 +9527,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9551,13 +9548,13 @@
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9565,10 +9562,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9591,17 +9588,17 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9638,7 +9635,7 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AC60" s="2"/>
       <c r="AD60" t="s" s="2">
@@ -9648,7 +9645,7 @@
         <v>140</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9663,19 +9660,19 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM60" t="s" s="2">
+      <c r="AN60" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN60" t="s" s="2">
+      <c r="AO60" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9683,13 +9680,13 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C61" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="B61" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>80</v>
@@ -9711,17 +9708,17 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9770,7 +9767,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9785,19 +9782,19 @@
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM61" t="s" s="2">
+      <c r="AN61" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9805,13 +9802,13 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C62" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="B62" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C62" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9833,17 +9830,17 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>410</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9892,7 +9889,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9907,19 +9904,19 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="AL62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM62" t="s" s="2">
+      <c r="AN62" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9927,10 +9924,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9953,19 +9950,19 @@
         <v>92</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N63" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N63" t="s" s="2">
+      <c r="O63" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -10002,17 +9999,17 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AC63" s="2"/>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10021,7 +10018,7 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>103</v>
@@ -10030,30 +10027,30 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP63" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="B64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="D64" t="s" s="2">
         <v>80</v>
@@ -10075,19 +10072,19 @@
         <v>92</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="O64" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>80</v>
@@ -10136,7 +10133,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -10145,7 +10142,7 @@
         <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>103</v>
@@ -10154,27 +10151,27 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B65" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="B65" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10289,10 +10286,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B66" t="s" s="2">
         <v>442</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>443</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10409,10 +10406,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B67" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>445</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10435,19 +10432,19 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>446</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="M67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="O67" t="s" s="2">
         <v>449</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10496,7 +10493,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10517,10 +10514,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="AN67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10531,10 +10528,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B68" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="B68" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10560,20 +10557,20 @@
         <v>111</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>456</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="P68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q68" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
@@ -10597,28 +10594,28 @@
         <v>208</v>
       </c>
       <c r="Y68" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z68" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="Z68" t="s" s="2">
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10639,10 +10636,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>464</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10653,10 +10650,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10682,14 +10679,14 @@
         <v>230</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M69" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10738,7 +10735,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10759,10 +10756,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AN69" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AN69" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10773,10 +10770,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B70" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="B70" t="s" s="2">
-        <v>474</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10802,63 +10799,63 @@
         <v>105</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M70" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="S70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF70" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10867,7 +10864,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10879,10 +10876,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10893,10 +10890,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10922,65 +10919,65 @@
         <v>111</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="N71" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N71" t="s" s="2">
+      <c r="O71" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>486</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="S71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -11001,10 +10998,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -11015,10 +11012,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11044,16 +11041,16 @@
         <v>216</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="N72" t="s" s="2">
+      <c r="O72" t="s" s="2">
         <v>493</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11081,11 +11078,11 @@
         <v>315</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
@@ -11102,7 +11099,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -11111,7 +11108,7 @@
         <v>91</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11126,7 +11123,7 @@
         <v>134</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11137,14 +11134,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -11166,16 +11163,16 @@
         <v>216</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M73" t="s" s="2">
+      <c r="N73" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N73" t="s" s="2">
+      <c r="O73" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>80</v>
@@ -11203,11 +11200,11 @@
         <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z73" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z73" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11224,7 +11221,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -11242,27 +11239,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM73" t="s" s="2">
+      <c r="AN73" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AN73" t="s" s="2">
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11285,19 +11282,19 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>514</v>
       </c>
-      <c r="N74" t="s" s="2">
+      <c r="O74" t="s" s="2">
         <v>515</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>80</v>
@@ -11346,7 +11343,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -11367,10 +11364,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11381,10 +11378,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11410,13 +11407,13 @@
         <v>216</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>522</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11446,7 +11443,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
@@ -11464,7 +11461,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -11482,27 +11479,27 @@
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="AM75" t="s" s="2">
+      <c r="AN75" t="s" s="2">
         <v>525</v>
       </c>
-      <c r="AN75" t="s" s="2">
+      <c r="AO75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP75" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO75" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP75" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11617,10 +11614,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11737,10 +11734,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11804,7 +11801,7 @@
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11857,10 +11854,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11979,10 +11976,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -12008,16 +12005,16 @@
         <v>216</v>
       </c>
       <c r="L80" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M80" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M80" t="s" s="2">
+      <c r="N80" t="s" s="2">
         <v>534</v>
       </c>
-      <c r="N80" t="s" s="2">
+      <c r="O80" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -12046,7 +12043,7 @@
       </c>
       <c r="Y80" s="2"/>
       <c r="Z80" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
@@ -12064,7 +12061,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -12085,10 +12082,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN80" t="s" s="2">
         <v>538</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12099,10 +12096,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12217,10 +12214,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -12337,10 +12334,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12404,7 +12401,7 @@
       </c>
       <c r="Y83" s="2"/>
       <c r="Z83" t="s" s="2">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12457,10 +12454,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12579,10 +12576,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12605,16 +12602,16 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>546</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>547</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -12664,7 +12661,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -12682,27 +12679,27 @@
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AM85" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="AM85" t="s" s="2">
+      <c r="AN85" t="s" s="2">
         <v>550</v>
       </c>
-      <c r="AN85" t="s" s="2">
+      <c r="AO85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP85" t="s" s="2">
         <v>551</v>
-      </c>
-      <c r="AO85" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP85" t="s" s="2">
-        <v>552</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12725,16 +12722,16 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>554</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>555</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>556</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12784,7 +12781,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12802,27 +12799,27 @@
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM86" t="s" s="2">
         <v>558</v>
       </c>
-      <c r="AM86" t="s" s="2">
+      <c r="AN86" t="s" s="2">
         <v>559</v>
       </c>
-      <c r="AN86" t="s" s="2">
+      <c r="AO86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP86" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP86" t="s" s="2">
-        <v>561</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12845,19 +12842,19 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="L87" t="s" s="2">
+      <c r="M87" t="s" s="2">
         <v>564</v>
       </c>
-      <c r="M87" t="s" s="2">
+      <c r="N87" t="s" s="2">
         <v>565</v>
       </c>
-      <c r="N87" t="s" s="2">
+      <c r="O87" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>80</v>
@@ -12906,7 +12903,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12918,19 +12915,19 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="AK87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM87" t="s" s="2">
+      <c r="AN87" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12941,10 +12938,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -13059,10 +13056,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -13179,14 +13176,14 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
@@ -13208,10 +13205,10 @@
         <v>136</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N90" t="s" s="2">
         <v>173</v>
@@ -13266,7 +13263,7 @@
         <v>80</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -13301,10 +13298,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13327,13 +13324,13 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>579</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>580</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>581</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -13384,7 +13381,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13393,7 +13390,7 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13405,10 +13402,10 @@
         <v>80</v>
       </c>
       <c r="AM91" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>583</v>
-      </c>
-      <c r="AN91" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13419,10 +13416,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13445,13 +13442,13 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>586</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>587</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -13502,7 +13499,7 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -13511,7 +13508,7 @@
         <v>91</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13523,10 +13520,10 @@
         <v>80</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13537,10 +13534,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13566,16 +13563,16 @@
         <v>216</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>591</v>
       </c>
-      <c r="N93" t="s" s="2">
+      <c r="O93" t="s" s="2">
         <v>592</v>
-      </c>
-      <c r="O93" t="s" s="2">
-        <v>593</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13603,11 +13600,11 @@
         <v>115</v>
       </c>
       <c r="Y93" t="s" s="2">
+        <v>593</v>
+      </c>
+      <c r="Z93" t="s" s="2">
         <v>594</v>
       </c>
-      <c r="Z93" t="s" s="2">
-        <v>595</v>
-      </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
       </c>
@@ -13624,7 +13621,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13642,13 +13639,13 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM93" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AM93" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AN93" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13659,10 +13656,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13688,16 +13685,16 @@
         <v>216</v>
       </c>
       <c r="L94" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>599</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>600</v>
       </c>
-      <c r="N94" t="s" s="2">
+      <c r="O94" t="s" s="2">
         <v>601</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>602</v>
       </c>
       <c r="P94" t="s" s="2">
         <v>80</v>
@@ -13722,14 +13719,14 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
         <v>604</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>605</v>
-      </c>
       <c r="AA94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13746,7 +13743,7 @@
         <v>80</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -13764,13 +13761,13 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AM94" t="s" s="2">
         <v>596</v>
       </c>
-      <c r="AM94" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AN94" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13781,10 +13778,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13807,17 +13804,17 @@
         <v>80</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>608</v>
-      </c>
-      <c r="M95" t="s" s="2">
-        <v>609</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>80</v>
@@ -13866,7 +13863,7 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -13890,7 +13887,7 @@
         <v>80</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13901,10 +13898,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13930,10 +13927,10 @@
         <v>230</v>
       </c>
       <c r="L96" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>613</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>614</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13984,7 +13981,7 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -14005,10 +14002,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14019,10 +14016,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14045,16 +14042,16 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>617</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>618</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>619</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>620</v>
       </c>
       <c r="O97" s="2"/>
       <c r="P97" t="s" s="2">
@@ -14104,7 +14101,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14125,10 +14122,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="AN97" t="s" s="2">
         <v>621</v>
-      </c>
-      <c r="AN97" t="s" s="2">
-        <v>622</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14139,10 +14136,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14165,16 +14162,16 @@
         <v>92</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>624</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="M98" t="s" s="2">
+      <c r="N98" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
@@ -14224,7 +14221,7 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -14245,10 +14242,10 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14259,10 +14256,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -14285,19 +14282,19 @@
         <v>92</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="L99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>630</v>
       </c>
-      <c r="M99" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="N99" t="s" s="2">
+      <c r="O99" t="s" s="2">
         <v>631</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>80</v>
@@ -14346,7 +14343,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14358,19 +14355,19 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM99" t="s" s="2">
         <v>633</v>
       </c>
-      <c r="AK99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM99" t="s" s="2">
+      <c r="AN99" t="s" s="2">
         <v>634</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>635</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14381,10 +14378,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -14499,10 +14496,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14619,14 +14616,14 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
@@ -14648,10 +14645,10 @@
         <v>136</v>
       </c>
       <c r="L102" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="M102" t="s" s="2">
         <v>575</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>576</v>
       </c>
       <c r="N102" t="s" s="2">
         <v>173</v>
@@ -14706,7 +14703,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -14741,10 +14738,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14770,16 +14767,16 @@
         <v>216</v>
       </c>
       <c r="L103" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="M103" t="s" s="2">
         <v>640</v>
       </c>
-      <c r="M103" t="s" s="2">
+      <c r="N103" t="s" s="2">
         <v>641</v>
       </c>
-      <c r="N103" t="s" s="2">
+      <c r="O103" t="s" s="2">
         <v>642</v>
-      </c>
-      <c r="O103" t="s" s="2">
-        <v>643</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14828,7 +14825,7 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>91</v>
@@ -14846,7 +14843,7 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AM103" t="s" s="2">
         <v>320</v>
@@ -14863,10 +14860,10 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14889,19 +14886,19 @@
         <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>646</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>648</v>
       </c>
-      <c r="N104" t="s" s="2">
-        <v>649</v>
-      </c>
       <c r="O104" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14929,11 +14926,11 @@
         <v>208</v>
       </c>
       <c r="Y104" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z104" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="Z104" t="s" s="2">
-        <v>651</v>
-      </c>
       <c r="AA104" t="s" s="2">
         <v>80</v>
       </c>
@@ -14950,7 +14947,7 @@
         <v>80</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
@@ -14959,7 +14956,7 @@
         <v>91</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>103</v>
@@ -14968,27 +14965,27 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="AM104" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AN104" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="AN104" t="s" s="2">
+      <c r="AO104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP104" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP104" t="s" s="2">
-        <v>434</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -15014,16 +15011,16 @@
         <v>216</v>
       </c>
       <c r="L105" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="M105" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>656</v>
       </c>
-      <c r="N105" t="s" s="2">
-        <v>657</v>
-      </c>
       <c r="O105" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15051,11 +15048,11 @@
         <v>315</v>
       </c>
       <c r="Y105" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z105" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="Z105" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
       </c>
@@ -15072,7 +15069,7 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
@@ -15081,7 +15078,7 @@
         <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>103</v>
@@ -15096,7 +15093,7 @@
         <v>134</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
@@ -15107,14 +15104,14 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" t="s" s="2">
@@ -15136,16 +15133,16 @@
         <v>216</v>
       </c>
       <c r="L106" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M106" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M106" t="s" s="2">
+      <c r="N106" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="N106" t="s" s="2">
+      <c r="O106" t="s" s="2">
         <v>503</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>504</v>
       </c>
       <c r="P106" t="s" s="2">
         <v>80</v>
@@ -15173,11 +15170,11 @@
         <v>315</v>
       </c>
       <c r="Y106" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z106" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="Z106" t="s" s="2">
-        <v>506</v>
-      </c>
       <c r="AA106" t="s" s="2">
         <v>80</v>
       </c>
@@ -15194,7 +15191,7 @@
         <v>80</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>78</v>
@@ -15212,27 +15209,27 @@
         <v>80</v>
       </c>
       <c r="AL106" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AM106" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM106" t="s" s="2">
+      <c r="AN106" t="s" s="2">
         <v>508</v>
       </c>
-      <c r="AN106" t="s" s="2">
+      <c r="AO106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP106" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>510</v>
       </c>
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -15258,16 +15255,16 @@
         <v>81</v>
       </c>
       <c r="L107" t="s" s="2">
+        <v>660</v>
+      </c>
+      <c r="M107" t="s" s="2">
         <v>661</v>
       </c>
-      <c r="M107" t="s" s="2">
-        <v>662</v>
-      </c>
       <c r="N107" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="O107" t="s" s="2">
         <v>566</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>567</v>
       </c>
       <c r="P107" t="s" s="2">
         <v>80</v>
@@ -15316,7 +15313,7 @@
         <v>80</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -15337,10 +15334,10 @@
         <v>80</v>
       </c>
       <c r="AM107" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>570</v>
       </c>
       <c r="AO107" t="s" s="2">
         <v>80</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.6.2</t>
+    <t>0.7.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.1</t>
+    <t>0.7.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$105</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4130" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4054" uniqueCount="654">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.2</t>
+    <t>0.7.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -463,17 +463,20 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>Observation.extension:heartRhythm</t>
-  </si>
-  <si>
-    <t>heartRhythm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythm}
+    <t>Observation.extension:heartRhythmIrregularity</t>
+  </si>
+  <si>
+    <t>heartRhythmIrregularity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythmIrregularity}
 </t>
   </si>
   <si>
-    <t>Regularity of the  heart beat.</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -490,10 +493,11 @@
 </t>
   </si>
   <si>
-    <t>Optional Extensions Element</t>
-  </si>
-  <si>
-    <t>Optional Extension Element - found in all resources.</t>
+    <t>Additional issues or factors that may impact for the measurement</t>
+  </si>
+  <si>
+    <t>Narrative description about any incidental factors that may affect interpretation of the physical findings.
+Comment: For example, presence of a pacemaker, level of anxiety; pain or fever etc.</t>
   </si>
   <si>
     <t>Observation.extension:clinicalDescription</t>
@@ -509,19 +513,6 @@
     <t>Narrative description about the heart beat.</t>
   </si>
   <si>
-    <t>Observation.extension:characterOfHeartrate</t>
-  </si>
-  <si>
-    <t>characterOfHeartrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationCharacterOfHeartRate}
-</t>
-  </si>
-  <si>
-    <t>Description of the character of the heart beat.</t>
-  </si>
-  <si>
     <t>Observation.extension:BodyPosition</t>
   </si>
   <si>
@@ -535,19 +526,6 @@
     <t>The body position of the subject during the observation.</t>
   </si>
   <si>
-    <t>Observation.extension:heartRythmIrregularity</t>
-  </si>
-  <si>
-    <t>heartRythmIrregularity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.no/fhir/StructureDefinition/NoDomainVitalSignsObservationHeartRhythmIrregularity}
-</t>
-  </si>
-  <si>
-    <t>More specific pattern of an irregular  heart beat.</t>
-  </si>
-  <si>
     <t>Observation.modifierExtension</t>
   </si>
   <si>
@@ -645,7 +623,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  Notes below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -1173,7 +1151,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension focusCode.</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -1231,7 +1209,7 @@
     <t>Often just a dateTime for Vital Signs.</t>
   </si>
   <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the Timing datatype which allow the measurement to be tied to regular life events.</t>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -1385,9 +1363,6 @@
     <t>The rate of the heart beat, measured in beats per minute.</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the Notes section below.</t>
-  </si>
-  <si>
     <t>Observation.value[x]:valueQuantity.id</t>
   </si>
   <si>
@@ -1641,7 +1616,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension bodySite.</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>http://hl7.no/fhir/ValueSet/NoDomainVitalSignsObservationHeartRateBodySite</t>
@@ -1951,7 +1926,7 @@
     <t>Used when reporting vital signs panel components.</t>
   </si>
   <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.</t>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1973,7 +1948,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -2396,7 +2371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP107"/>
+  <dimension ref="A1:AP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2407,7 +2382,7 @@
   <cols>
     <col min="1" max="1" width="59.23828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.21484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="23.3203125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3566,7 +3541,7 @@
         <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3626,7 +3601,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3652,13 +3627,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>80</v>
@@ -3680,13 +3655,13 @@
         <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3746,7 +3721,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3772,13 +3747,13 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
@@ -3800,13 +3775,13 @@
         <v>80</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3866,7 +3841,7 @@
         <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>142</v>
@@ -3892,13 +3867,13 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
@@ -3920,13 +3895,13 @@
         <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3986,7 +3961,7 @@
         <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>142</v>
@@ -4001,7 +3976,7 @@
         <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>80</v>
@@ -4012,44 +3987,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C14" t="s" s="2">
         <v>162</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>80</v>
       </c>
@@ -4097,7 +4074,7 @@
         <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4083,7 @@
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>142</v>
@@ -4132,14 +4109,12 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4148,7 +4123,7 @@
         <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
@@ -4157,19 +4132,21 @@
         <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -4217,7 +4194,7 @@
         <v>80</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -4226,25 +4203,25 @@
         <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>147</v>
+        <v>80</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -4252,14 +4229,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4272,25 +4249,23 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -4339,7 +4314,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -4351,19 +4326,19 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>80</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>80</v>
+        <v>185</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>80</v>
@@ -4374,14 +4349,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -4400,18 +4375,18 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>180</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -4459,7 +4434,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
@@ -4474,19 +4449,19 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -4494,43 +4469,45 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>186</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O18" t="s" s="2">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -4555,13 +4532,11 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>80</v>
+        <v>202</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>80</v>
@@ -4579,13 +4554,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -4594,19 +4569,19 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>80</v>
+        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>80</v>
@@ -4614,44 +4589,46 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="O19" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>213</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4675,31 +4652,29 @@
         <v>80</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="AC19" s="2"/>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4714,19 +4689,19 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4734,12 +4709,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="D20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4754,25 +4731,25 @@
         <v>92</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -4797,35 +4774,37 @@
         <v>80</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF20" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AG20" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4834,19 +4813,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>80</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -4854,10 +4833,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4865,13 +4844,13 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G21" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H21" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>80</v>
@@ -4880,20 +4859,16 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
       </c>
@@ -4917,41 +4892,43 @@
         <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AC21" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
@@ -4963,10 +4940,10 @@
         <v>80</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>80</v>
@@ -4974,26 +4951,24 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="C22" t="s" s="2">
-        <v>227</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>80</v>
@@ -5002,20 +4977,18 @@
         <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -5039,31 +5012,31 @@
         <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -5075,7 +5048,7 @@
         <v>80</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>80</v>
@@ -5087,10 +5060,10 @@
         <v>80</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -5098,10 +5071,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5109,31 +5082,35 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -5181,19 +5158,19 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>80</v>
@@ -5202,10 +5179,10 @@
         <v>80</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>80</v>
@@ -5216,21 +5193,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -5242,17 +5219,15 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
@@ -5289,31 +5264,31 @@
         <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
@@ -5325,7 +5300,7 @@
         <v>80</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>80</v>
@@ -5336,46 +5311,44 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -5411,19 +5384,19 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -5435,7 +5408,7 @@
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5444,10 +5417,10 @@
         <v>80</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>80</v>
@@ -5458,10 +5431,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5469,37 +5442,41 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>80</v>
@@ -5541,7 +5518,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -5553,7 +5530,7 @@
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5562,10 +5539,10 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>80</v>
@@ -5576,21 +5553,21 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -5599,19 +5576,19 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5649,31 +5626,31 @@
         <v>80</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
@@ -5682,10 +5659,10 @@
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>80</v>
@@ -5696,10 +5673,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5722,26 +5699,24 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>80</v>
@@ -5783,7 +5758,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5804,10 +5779,10 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>80</v>
@@ -5818,10 +5793,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5844,18 +5819,18 @@
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O29" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5903,7 +5878,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5924,10 +5899,10 @@
         <v>80</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>80</v>
@@ -5938,10 +5913,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5949,13 +5924,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>80</v>
@@ -5964,24 +5939,26 @@
         <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O30" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>278</v>
+        <v>80</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>80</v>
@@ -6023,7 +6000,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -6044,10 +6021,10 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>80</v>
@@ -6058,10 +6035,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6084,17 +6061,19 @@
         <v>92</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O31" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -6143,7 +6122,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -6164,10 +6143,10 @@
         <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>80</v>
@@ -6178,24 +6157,24 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>303</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>80</v>
@@ -6204,19 +6183,19 @@
         <v>92</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -6241,13 +6220,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -6265,10 +6244,10 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>91</v>
@@ -6280,30 +6259,30 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6323,23 +6302,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -6387,7 +6362,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -6399,7 +6374,7 @@
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>80</v>
@@ -6408,10 +6383,10 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>80</v>
@@ -6422,46 +6397,44 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>310</v>
+        <v>163</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>311</v>
+        <v>230</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>312</v>
+        <v>231</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -6485,69 +6458,69 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>309</v>
+        <v>233</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>227</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6555,10 +6528,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6567,19 +6540,23 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>80</v>
       </c>
@@ -6615,31 +6592,29 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="AC35" s="2"/>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6648,10 +6623,10 @@
         <v>80</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6662,21 +6637,23 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D36" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6685,10 +6662,10 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>136</v>
+        <v>236</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>237</v>
@@ -6697,9 +6674,11 @@
         <v>238</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6735,19 +6714,19 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6759,7 +6738,7 @@
         <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>80</v>
@@ -6768,10 +6747,10 @@
         <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6782,10 +6761,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6793,11 +6772,11 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="H37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6805,23 +6784,19 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6857,29 +6832,31 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
@@ -6888,10 +6865,10 @@
         <v>80</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6902,23 +6879,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>329</v>
-      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6927,23 +6902,21 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6979,19 +6952,19 @@
         <v>80</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -7003,7 +6976,7 @@
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>80</v>
@@ -7012,10 +6985,10 @@
         <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>80</v>
@@ -7026,10 +6999,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7037,7 +7010,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -7049,25 +7022,29 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>80</v>
@@ -7109,7 +7086,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -7121,7 +7098,7 @@
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>80</v>
@@ -7130,10 +7107,10 @@
         <v>80</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>80</v>
@@ -7144,21 +7121,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -7167,19 +7144,19 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7217,31 +7194,31 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -7250,10 +7227,10 @@
         <v>80</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>80</v>
@@ -7264,10 +7241,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7290,26 +7267,24 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>80</v>
@@ -7351,7 +7326,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -7372,10 +7347,10 @@
         <v>80</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -7386,10 +7361,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7412,18 +7387,18 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -7471,7 +7446,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7492,10 +7467,10 @@
         <v>80</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7506,10 +7481,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7517,7 +7492,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>91</v>
@@ -7532,24 +7507,26 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>80</v>
@@ -7591,7 +7568,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7612,10 +7589,10 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7626,12 +7603,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7652,17 +7631,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O44" t="s" s="2">
-        <v>286</v>
+        <v>240</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7711,13 +7692,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>287</v>
+        <v>241</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7732,10 +7713,10 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>288</v>
+        <v>242</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>289</v>
+        <v>243</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>80</v>
@@ -7746,10 +7727,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7769,23 +7750,19 @@
         <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>292</v>
+        <v>223</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>293</v>
+        <v>224</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>296</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>80</v>
       </c>
@@ -7833,7 +7810,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -7845,7 +7822,7 @@
         <v>80</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>80</v>
@@ -7854,10 +7831,10 @@
         <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>298</v>
+        <v>80</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>299</v>
+        <v>227</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>80</v>
@@ -7868,23 +7845,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="C46" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>80</v>
@@ -7893,23 +7868,21 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7945,19 +7918,19 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7969,7 +7942,7 @@
         <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>80</v>
@@ -7978,10 +7951,10 @@
         <v>80</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>249</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7992,10 +7965,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8003,7 +7976,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -8015,25 +7988,29 @@
         <v>80</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>253</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" t="s" s="2">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="S47" t="s" s="2">
         <v>80</v>
@@ -8075,7 +8052,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -8087,7 +8064,7 @@
         <v>80</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
@@ -8096,10 +8073,10 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>80</v>
+        <v>256</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -8110,21 +8087,21 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>80</v>
@@ -8133,19 +8110,19 @@
         <v>80</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>173</v>
+        <v>262</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8183,31 +8160,31 @@
         <v>80</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -8216,10 +8193,10 @@
         <v>80</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>80</v>
+        <v>264</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -8230,10 +8207,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8256,26 +8233,24 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>259</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>80</v>
@@ -8317,7 +8292,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -8338,10 +8313,10 @@
         <v>80</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -8352,10 +8327,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8378,18 +8353,18 @@
         <v>92</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -8437,7 +8412,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8458,10 +8433,10 @@
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8472,10 +8447,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8483,7 +8458,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>91</v>
@@ -8498,24 +8473,26 @@
         <v>92</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>285</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>354</v>
+        <v>80</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>80</v>
@@ -8557,7 +8534,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8578,10 +8555,10 @@
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8592,10 +8569,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8618,17 +8595,19 @@
         <v>92</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8677,7 +8656,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8698,10 +8677,10 @@
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8712,10 +8691,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8723,13 +8702,13 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>80</v>
@@ -8738,19 +8717,19 @@
         <v>92</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>293</v>
+        <v>353</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>294</v>
+        <v>354</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>296</v>
+        <v>356</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8799,7 +8778,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8814,19 +8793,19 @@
         <v>103</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>80</v>
+        <v>357</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8834,10 +8813,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8848,7 +8827,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8860,20 +8839,18 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>230</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>302</v>
+        <v>363</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>303</v>
+        <v>364</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>80</v>
       </c>
@@ -8921,13 +8898,13 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>306</v>
+        <v>361</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
@@ -8942,13 +8919,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>360</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8956,24 +8933,24 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>80</v>
@@ -8982,19 +8959,19 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -9043,7 +9020,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -9058,19 +9035,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>80</v>
@@ -9078,24 +9055,24 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>80</v>
+        <v>379</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -9104,18 +9081,20 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -9163,34 +9142,34 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>80</v>
+        <v>385</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>386</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>80</v>
+        <v>387</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>80</v>
@@ -9198,14 +9177,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>375</v>
+        <v>80</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9224,20 +9203,18 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>377</v>
+        <v>393</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>378</v>
+        <v>394</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
       </c>
@@ -9285,7 +9262,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -9300,19 +9277,19 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>80</v>
@@ -9320,24 +9297,24 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>386</v>
+        <v>80</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>80</v>
@@ -9346,19 +9323,17 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -9395,46 +9370,44 @@
         <v>80</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC58" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="AC58" s="2"/>
       <c r="AD58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>392</v>
+        <v>80</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>393</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -9442,12 +9415,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="D59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9456,7 +9431,7 @@
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>80</v>
@@ -9468,18 +9443,18 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N59" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="O59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9527,13 +9502,13 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>80</v>
@@ -9542,19 +9517,19 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9562,12 +9537,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="D60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9588,17 +9565,17 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9635,17 +9612,19 @@
         <v>80</v>
       </c>
       <c r="AB60" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AC60" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9660,19 +9639,19 @@
         <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9680,14 +9659,12 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="C61" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9696,10 +9673,10 @@
         <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>80</v>
@@ -9708,17 +9685,19 @@
         <v>92</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N61" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9755,60 +9734,58 @@
         <v>80</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC61" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="AC61" s="2"/>
       <c r="AD61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>80</v>
@@ -9818,10 +9795,10 @@
         <v>78</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9830,17 +9807,19 @@
         <v>92</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>408</v>
+        <v>429</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>430</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O62" t="s" s="2">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
@@ -9889,45 +9868,45 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>80</v>
+        <v>422</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>412</v>
+        <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>423</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>415</v>
+        <v>80</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9941,29 +9920,25 @@
         <v>91</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>423</v>
+        <v>223</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>424</v>
+        <v>224</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
       </c>
@@ -9999,17 +9974,19 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="AC63" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>428</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>422</v>
+        <v>226</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -10018,74 +9995,70 @@
         <v>91</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>432</v>
+        <v>227</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B64" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>435</v>
-      </c>
+      <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>423</v>
+        <v>136</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>436</v>
+        <v>230</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>437</v>
+        <v>231</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -10121,57 +10094,57 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>233</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>429</v>
+        <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>431</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>432</v>
+        <v>227</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>433</v>
+        <v>80</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10179,31 +10152,35 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>230</v>
+        <v>437</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>231</v>
+        <v>438</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>439</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -10251,7 +10228,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>233</v>
+        <v>442</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -10263,7 +10240,7 @@
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -10272,10 +10249,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>443</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>234</v>
+        <v>444</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -10286,48 +10263,50 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>237</v>
+        <v>447</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O66" s="2"/>
+        <v>448</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>449</v>
+      </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="R66" t="s" s="2">
         <v>80</v>
       </c>
@@ -10347,43 +10326,43 @@
         <v>80</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>240</v>
+        <v>453</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -10392,10 +10371,10 @@
         <v>80</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>80</v>
+        <v>454</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -10406,10 +10385,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>443</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10432,19 +10411,17 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>223</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -10493,7 +10470,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10514,10 +10491,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10528,10 +10505,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10539,41 +10516,39 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q68" t="s" s="2">
-        <v>458</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>80</v>
+        <v>469</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>80</v>
@@ -10591,13 +10566,13 @@
         <v>80</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>459</v>
+        <v>80</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>460</v>
+        <v>80</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>80</v>
@@ -10615,7 +10590,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10624,7 +10599,7 @@
         <v>91</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>103</v>
@@ -10639,7 +10614,7 @@
         <v>462</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10650,10 +10625,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10676,24 +10651,26 @@
         <v>92</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>230</v>
+        <v>111</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>475</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>476</v>
+      </c>
       <c r="O69" t="s" s="2">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>80</v>
+        <v>478</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>80</v>
@@ -10735,7 +10712,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10756,10 +10733,10 @@
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10770,10 +10747,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10781,7 +10758,7 @@
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>91</v>
@@ -10793,27 +10770,29 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>483</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="O70" t="s" s="2">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>477</v>
+        <v>80</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>80</v>
@@ -10831,13 +10810,13 @@
         <v>80</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>80</v>
+        <v>486</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>80</v>
+        <v>487</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10855,7 +10834,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10864,7 +10843,7 @@
         <v>91</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>103</v>
@@ -10876,10 +10855,10 @@
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>470</v>
+        <v>134</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10890,52 +10869,52 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>111</v>
+        <v>209</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" t="s" s="2">
-        <v>486</v>
+        <v>80</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>80</v>
@@ -10953,13 +10932,13 @@
         <v>80</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>80</v>
+        <v>496</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>80</v>
+        <v>497</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
@@ -10977,13 +10956,13 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>80</v>
@@ -10995,27 +10974,27 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>80</v>
+        <v>498</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>80</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11026,10 +11005,10 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -11038,19 +11017,19 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>503</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>492</v>
+        <v>506</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>493</v>
+        <v>507</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -11075,13 +11054,13 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
@@ -11099,16 +11078,16 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>496</v>
+        <v>80</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
@@ -11120,10 +11099,10 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>134</v>
+        <v>508</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>80</v>
@@ -11134,21 +11113,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>499</v>
+        <v>80</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -11160,20 +11139,18 @@
         <v>80</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>513</v>
+      </c>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>80</v>
       </c>
@@ -11197,13 +11174,11 @@
         <v>80</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="Y73" s="2"/>
       <c r="Z73" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>80</v>
@@ -11221,13 +11196,13 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>80</v>
@@ -11239,27 +11214,27 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11270,7 +11245,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>80</v>
@@ -11282,20 +11257,16 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>511</v>
+        <v>223</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>512</v>
+        <v>224</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>80</v>
       </c>
@@ -11343,19 +11314,19 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>510</v>
+        <v>226</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>80</v>
@@ -11364,10 +11335,10 @@
         <v>80</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>516</v>
+        <v>80</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>517</v>
+        <v>227</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>80</v>
@@ -11378,21 +11349,21 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>80</v>
@@ -11404,16 +11375,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>519</v>
+        <v>230</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>520</v>
+        <v>231</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>521</v>
+        <v>166</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11439,67 +11410,69 @@
         <v>80</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>522</v>
+        <v>80</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>518</v>
+        <v>233</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>523</v>
+        <v>80</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>524</v>
+        <v>80</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>525</v>
+        <v>227</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>526</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11510,7 +11483,7 @@
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>80</v>
@@ -11519,19 +11492,23 @@
         <v>80</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
       </c>
@@ -11555,13 +11532,11 @@
         <v>80</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y76" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="Y76" s="2"/>
       <c r="Z76" t="s" s="2">
-        <v>80</v>
+        <v>514</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>80</v>
@@ -11579,19 +11554,19 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>80</v>
@@ -11600,10 +11575,10 @@
         <v>80</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11614,21 +11589,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>80</v>
@@ -11637,21 +11612,23 @@
         <v>80</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
       </c>
@@ -11687,31 +11664,31 @@
         <v>80</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>80</v>
@@ -11720,10 +11697,10 @@
         <v>80</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11734,10 +11711,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11748,7 +11725,7 @@
         <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>80</v>
@@ -11757,22 +11734,22 @@
         <v>80</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>244</v>
+        <v>524</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>245</v>
+        <v>525</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>246</v>
+        <v>526</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>247</v>
+        <v>527</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>80</v>
@@ -11797,11 +11774,11 @@
         <v>80</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Y78" s="2"/>
       <c r="Z78" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>80</v>
@@ -11819,13 +11796,13 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>248</v>
+        <v>523</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>80</v>
@@ -11840,10 +11817,10 @@
         <v>80</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>249</v>
+        <v>529</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>250</v>
+        <v>530</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11854,10 +11831,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11877,23 +11854,19 @@
         <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O79" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>80</v>
       </c>
@@ -11941,7 +11914,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>306</v>
+        <v>226</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11953,7 +11926,7 @@
         <v>80</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>80</v>
@@ -11962,10 +11935,10 @@
         <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>308</v>
+        <v>227</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>80</v>
@@ -11976,21 +11949,21 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>80</v>
@@ -12002,20 +11975,18 @@
         <v>80</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>216</v>
+        <v>136</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>532</v>
+        <v>230</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>533</v>
+        <v>231</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>80</v>
       </c>
@@ -12039,41 +12010,43 @@
         <v>80</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y80" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z80" t="s" s="2">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>80</v>
+        <v>139</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>80</v>
+        <v>232</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>80</v>
+        <v>140</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>531</v>
+        <v>233</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>80</v>
@@ -12082,10 +12055,10 @@
         <v>80</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>537</v>
+        <v>80</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>538</v>
+        <v>227</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>80</v>
@@ -12096,10 +12069,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -12110,7 +12083,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>80</v>
@@ -12119,19 +12092,23 @@
         <v>80</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>238</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>80</v>
       </c>
@@ -12155,13 +12132,11 @@
         <v>80</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="Y81" s="2"/>
       <c r="Z81" t="s" s="2">
-        <v>80</v>
+        <v>528</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>80</v>
@@ -12179,19 +12154,19 @@
         <v>80</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>80</v>
@@ -12200,10 +12175,10 @@
         <v>80</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>80</v>
+        <v>242</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>80</v>
@@ -12214,21 +12189,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>80</v>
@@ -12237,21 +12212,23 @@
         <v>80</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>238</v>
+        <v>296</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O82" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P82" t="s" s="2">
         <v>80</v>
       </c>
@@ -12287,31 +12264,31 @@
         <v>80</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>239</v>
+        <v>80</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>240</v>
+        <v>299</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>80</v>
@@ -12320,10 +12297,10 @@
         <v>80</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>80</v>
@@ -12334,10 +12311,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -12348,7 +12325,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>80</v>
@@ -12357,23 +12334,21 @@
         <v>80</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>243</v>
+        <v>536</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>244</v>
+        <v>537</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>245</v>
+        <v>538</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>247</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>80</v>
       </c>
@@ -12397,11 +12372,13 @@
         <v>80</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y83" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="Z83" t="s" s="2">
-        <v>536</v>
+        <v>80</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>80</v>
@@ -12419,13 +12396,13 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>248</v>
+        <v>535</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>80</v>
@@ -12437,27 +12414,27 @@
         <v>80</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>80</v>
+        <v>540</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>249</v>
+        <v>541</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>250</v>
+        <v>542</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>80</v>
+        <v>543</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12477,23 +12454,21 @@
         <v>80</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>230</v>
+        <v>545</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>302</v>
+        <v>546</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>303</v>
+        <v>547</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="O84" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>80</v>
       </c>
@@ -12541,7 +12516,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>306</v>
+        <v>544</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -12559,27 +12534,27 @@
         <v>80</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>80</v>
+        <v>549</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>307</v>
+        <v>550</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>308</v>
+        <v>551</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP84" t="s" s="2">
-        <v>80</v>
+        <v>552</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12590,7 +12565,7 @@
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>80</v>
@@ -12602,18 +12577,20 @@
         <v>80</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O85" s="2"/>
+        <v>557</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>558</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>80</v>
       </c>
@@ -12661,45 +12638,45 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>559</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>548</v>
+        <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>550</v>
+        <v>561</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>551</v>
+        <v>80</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12722,17 +12699,15 @@
         <v>80</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>553</v>
+        <v>223</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>554</v>
+        <v>224</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>556</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>80</v>
@@ -12781,7 +12756,7 @@
         <v>80</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>552</v>
+        <v>226</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -12793,37 +12768,37 @@
         <v>80</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>557</v>
+        <v>80</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>559</v>
+        <v>227</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP86" t="s" s="2">
-        <v>560</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
@@ -12842,20 +12817,18 @@
         <v>80</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>562</v>
+        <v>136</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>563</v>
+        <v>230</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>564</v>
+        <v>231</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>80</v>
       </c>
@@ -12903,7 +12876,7 @@
         <v>80</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>561</v>
+        <v>233</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
@@ -12915,7 +12888,7 @@
         <v>80</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>567</v>
+        <v>142</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>80</v>
@@ -12924,10 +12897,10 @@
         <v>80</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>568</v>
+        <v>80</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>569</v>
+        <v>227</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>80</v>
@@ -12938,42 +12911,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>231</v>
+        <v>566</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>80</v>
       </c>
@@ -13021,19 +12998,19 @@
         <v>80</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>233</v>
+        <v>568</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>80</v>
@@ -13045,7 +13022,7 @@
         <v>80</v>
       </c>
       <c r="AN88" t="s" s="2">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="AO88" t="s" s="2">
         <v>80</v>
@@ -13056,21 +13033,21 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>80</v>
@@ -13082,17 +13059,15 @@
         <v>80</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>136</v>
+        <v>570</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>237</v>
+        <v>571</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>80</v>
@@ -13141,19 +13116,19 @@
         <v>80</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>240</v>
+        <v>569</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>80</v>
@@ -13162,10 +13137,10 @@
         <v>80</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>234</v>
+        <v>575</v>
       </c>
       <c r="AO89" t="s" s="2">
         <v>80</v>
@@ -13176,46 +13151,42 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>136</v>
+        <v>570</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>80</v>
       </c>
@@ -13269,13 +13240,13 @@
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>80</v>
+        <v>573</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>80</v>
@@ -13284,10 +13255,10 @@
         <v>80</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>80</v>
+        <v>574</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>134</v>
+        <v>579</v>
       </c>
       <c r="AO90" t="s" s="2">
         <v>80</v>
@@ -13298,10 +13269,10 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -13324,16 +13295,20 @@
         <v>80</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>578</v>
+        <v>209</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
+        <v>582</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P91" t="s" s="2">
         <v>80</v>
       </c>
@@ -13357,13 +13332,13 @@
         <v>80</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>80</v>
+        <v>585</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>80</v>
+        <v>586</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>80</v>
@@ -13381,7 +13356,7 @@
         <v>80</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -13390,7 +13365,7 @@
         <v>91</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>103</v>
@@ -13399,13 +13374,13 @@
         <v>80</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AN91" t="s" s="2">
-        <v>583</v>
+        <v>500</v>
       </c>
       <c r="AO91" t="s" s="2">
         <v>80</v>
@@ -13416,10 +13391,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13430,7 +13405,7 @@
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>80</v>
@@ -13442,16 +13417,20 @@
         <v>80</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>578</v>
+        <v>209</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>591</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>593</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>80</v>
       </c>
@@ -13475,13 +13454,13 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>80</v>
+        <v>594</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>80</v>
+        <v>595</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>80</v>
@@ -13499,16 +13478,16 @@
         <v>80</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>581</v>
+        <v>80</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>103</v>
@@ -13517,13 +13496,13 @@
         <v>80</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>80</v>
@@ -13534,10 +13513,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13560,19 +13539,17 @@
         <v>80</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>216</v>
+        <v>598</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>591</v>
-      </c>
+        <v>600</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>592</v>
+        <v>601</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>80</v>
@@ -13597,13 +13574,13 @@
         <v>80</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>593</v>
+        <v>80</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>594</v>
+        <v>80</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>80</v>
@@ -13621,7 +13598,7 @@
         <v>80</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -13639,13 +13616,13 @@
         <v>80</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="AN93" t="s" s="2">
-        <v>508</v>
+        <v>602</v>
       </c>
       <c r="AO93" t="s" s="2">
         <v>80</v>
@@ -13656,10 +13633,10 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13670,7 +13647,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>80</v>
@@ -13682,20 +13659,16 @@
         <v>80</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>600</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>601</v>
-      </c>
+        <v>605</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>80</v>
       </c>
@@ -13719,37 +13692,37 @@
         <v>80</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>602</v>
+        <v>80</v>
       </c>
       <c r="Y94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF94" t="s" s="2">
         <v>603</v>
       </c>
-      <c r="Z94" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>597</v>
-      </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>80</v>
@@ -13761,13 +13734,13 @@
         <v>80</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>595</v>
+        <v>80</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>596</v>
+        <v>574</v>
       </c>
       <c r="AN94" t="s" s="2">
-        <v>508</v>
+        <v>606</v>
       </c>
       <c r="AO94" t="s" s="2">
         <v>80</v>
@@ -13778,10 +13751,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13792,7 +13765,7 @@
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>80</v>
@@ -13801,21 +13774,21 @@
         <v>80</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" t="s" s="2">
-        <v>609</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>80</v>
       </c>
@@ -13863,13 +13836,13 @@
         <v>80</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>80</v>
@@ -13884,10 +13857,10 @@
         <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>80</v>
+        <v>612</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>80</v>
@@ -13898,10 +13871,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13912,7 +13885,7 @@
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>80</v>
@@ -13921,18 +13894,20 @@
         <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>230</v>
+        <v>615</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>617</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>618</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>80</v>
@@ -13981,13 +13956,13 @@
         <v>80</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>80</v>
@@ -14002,10 +13977,10 @@
         <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>582</v>
+        <v>612</v>
       </c>
       <c r="AN96" t="s" s="2">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="AO96" t="s" s="2">
         <v>80</v>
@@ -14016,10 +13991,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -14033,7 +14008,7 @@
         <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>80</v>
@@ -14042,18 +14017,20 @@
         <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>616</v>
+        <v>554</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O97" s="2"/>
+        <v>622</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>623</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>80</v>
       </c>
@@ -14101,7 +14078,7 @@
         <v>80</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -14113,7 +14090,7 @@
         <v>80</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>103</v>
+        <v>624</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>80</v>
@@ -14122,10 +14099,10 @@
         <v>80</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="AN97" t="s" s="2">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="AO97" t="s" s="2">
         <v>80</v>
@@ -14136,10 +14113,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -14150,7 +14127,7 @@
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>80</v>
@@ -14159,20 +14136,18 @@
         <v>80</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>623</v>
+        <v>223</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>624</v>
+        <v>224</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>626</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>80</v>
@@ -14221,19 +14196,19 @@
         <v>80</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>622</v>
+        <v>226</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>80</v>
@@ -14242,10 +14217,10 @@
         <v>80</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>620</v>
+        <v>80</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>627</v>
+        <v>227</v>
       </c>
       <c r="AO98" t="s" s="2">
         <v>80</v>
@@ -14263,7 +14238,7 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -14273,29 +14248,27 @@
         <v>79</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>562</v>
+        <v>136</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>629</v>
+        <v>230</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>629</v>
+        <v>231</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>630</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>631</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>80</v>
       </c>
@@ -14343,7 +14316,7 @@
         <v>80</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>628</v>
+        <v>233</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -14355,7 +14328,7 @@
         <v>80</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>632</v>
+        <v>142</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>80</v>
@@ -14364,10 +14337,10 @@
         <v>80</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>633</v>
+        <v>80</v>
       </c>
       <c r="AN99" t="s" s="2">
-        <v>634</v>
+        <v>227</v>
       </c>
       <c r="AO99" t="s" s="2">
         <v>80</v>
@@ -14378,42 +14351,46 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>80</v>
+        <v>565</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>230</v>
+        <v>136</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>231</v>
+        <v>566</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="O100" t="s" s="2">
+        <v>167</v>
+      </c>
       <c r="P100" t="s" s="2">
         <v>80</v>
       </c>
@@ -14461,19 +14438,19 @@
         <v>80</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>233</v>
+        <v>568</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>80</v>
@@ -14485,7 +14462,7 @@
         <v>80</v>
       </c>
       <c r="AN100" t="s" s="2">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="AO100" t="s" s="2">
         <v>80</v>
@@ -14496,44 +14473,46 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>136</v>
+        <v>209</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>237</v>
+        <v>631</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>238</v>
+        <v>632</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O101" s="2"/>
+        <v>633</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>634</v>
+      </c>
       <c r="P101" t="s" s="2">
         <v>80</v>
       </c>
@@ -14557,13 +14536,13 @@
         <v>80</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>80</v>
+        <v>308</v>
       </c>
       <c r="Y101" t="s" s="2">
-        <v>80</v>
+        <v>309</v>
       </c>
       <c r="Z101" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>80</v>
@@ -14581,34 +14560,34 @@
         <v>80</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>240</v>
+        <v>630</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>80</v>
+        <v>635</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>234</v>
+        <v>314</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AP101" t="s" s="2">
         <v>80</v>
@@ -14616,45 +14595,45 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>573</v>
+        <v>80</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J102" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>136</v>
+        <v>637</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>574</v>
+        <v>638</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>575</v>
+        <v>639</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>173</v>
+        <v>640</v>
       </c>
       <c r="O102" t="s" s="2">
-        <v>174</v>
+        <v>419</v>
       </c>
       <c r="P102" t="s" s="2">
         <v>80</v>
@@ -14679,13 +14658,13 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>80</v>
+        <v>641</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>80</v>
+        <v>642</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>80</v>
@@ -14703,45 +14682,45 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>576</v>
+        <v>636</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>80</v>
+        <v>643</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>80</v>
+        <v>644</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>80</v>
+        <v>424</v>
       </c>
       <c r="AN102" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="AO102" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP102" t="s" s="2">
-        <v>80</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14749,7 +14728,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>91</v>
@@ -14761,22 +14740,22 @@
         <v>80</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="O103" t="s" s="2">
-        <v>642</v>
+        <v>485</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>80</v>
@@ -14801,13 +14780,13 @@
         <v>80</v>
       </c>
       <c r="X103" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="Y103" t="s" s="2">
-        <v>316</v>
+        <v>486</v>
       </c>
       <c r="Z103" t="s" s="2">
-        <v>317</v>
+        <v>487</v>
       </c>
       <c r="AA103" t="s" s="2">
         <v>80</v>
@@ -14825,16 +14804,16 @@
         <v>80</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>91</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>80</v>
+        <v>649</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>103</v>
@@ -14843,16 +14822,16 @@
         <v>80</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>643</v>
+        <v>80</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>320</v>
+        <v>134</v>
       </c>
       <c r="AN103" t="s" s="2">
-        <v>321</v>
+        <v>489</v>
       </c>
       <c r="AO103" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AP103" t="s" s="2">
         <v>80</v>
@@ -14860,45 +14839,45 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>80</v>
+        <v>491</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>645</v>
+        <v>209</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>646</v>
+        <v>492</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>647</v>
+        <v>493</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>648</v>
+        <v>494</v>
       </c>
       <c r="O104" t="s" s="2">
-        <v>426</v>
+        <v>495</v>
       </c>
       <c r="P104" t="s" s="2">
         <v>80</v>
@@ -14923,40 +14902,40 @@
         <v>80</v>
       </c>
       <c r="X104" t="s" s="2">
-        <v>208</v>
+        <v>308</v>
       </c>
       <c r="Y104" t="s" s="2">
-        <v>649</v>
+        <v>496</v>
       </c>
       <c r="Z104" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF104" t="s" s="2">
         <v>650</v>
       </c>
-      <c r="AA104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>644</v>
-      </c>
       <c r="AG104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>651</v>
+        <v>80</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>103</v>
@@ -14965,27 +14944,27 @@
         <v>80</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>652</v>
+        <v>498</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>431</v>
+        <v>499</v>
       </c>
       <c r="AN104" t="s" s="2">
-        <v>432</v>
+        <v>500</v>
       </c>
       <c r="AO104" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP104" t="s" s="2">
-        <v>433</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14996,10 +14975,10 @@
         <v>78</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>80</v>
@@ -15008,19 +14987,19 @@
         <v>80</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>216</v>
+        <v>81</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>656</v>
+        <v>557</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>493</v>
+        <v>558</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>80</v>
@@ -15045,13 +15024,13 @@
         <v>80</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>315</v>
+        <v>80</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>494</v>
+        <v>80</v>
       </c>
       <c r="Z105" t="s" s="2">
-        <v>495</v>
+        <v>80</v>
       </c>
       <c r="AA105" t="s" s="2">
         <v>80</v>
@@ -15069,16 +15048,16 @@
         <v>80</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>657</v>
+        <v>80</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>103</v>
@@ -15090,264 +15069,20 @@
         <v>80</v>
       </c>
       <c r="AM105" t="s" s="2">
-        <v>134</v>
+        <v>560</v>
       </c>
       <c r="AN105" t="s" s="2">
-        <v>497</v>
+        <v>561</v>
       </c>
       <c r="AO105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AP105" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N106" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="O106" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="P106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>658</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP106" t="s" s="2">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>660</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>661</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O107" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="P107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>659</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP107" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP107">
+  <autoFilter ref="A1:AP105">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15357,7 +15092,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI106">
+  <conditionalFormatting sqref="A2:AI104">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.4</t>
+    <t>0.7.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -14658,7 +14658,7 @@
         <v>80</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>201</v>
+        <v>308</v>
       </c>
       <c r="Y102" t="s" s="2">
         <v>641</v>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.5</t>
+    <t>0.7.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.6</t>
+    <t>0.7.7</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -97,7 +97,7 @@
     <t>Copyright</t>
   </si>
   <si>
-    <t>Some content in this profile builds on the blood pressure archetype: Blodtrykk, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-02]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2165</t>
+    <t>Some content in this profile builds on the heart rate archetype: Puls/Hjertefrekvens, Publisert arketype [Internet]. openEHR Norge, Nasjonal IKT Clinical Knowledge Manager [sitert: 2024-12-04]. Hentet fra: https://arketyper.no/ckm/archetypes/1078.36.2293</t>
   </si>
   <si>
     <t>FHIR Version</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.7.8</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-05-01</t>
+    <t>2025-01-28</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t>Base profile for Norwegian Vital Signs Observation Heart Rate information.  
-Use to record the presence or absence of a heart beat.</t>
+To be used for recording the rate and associated attributes for a heart beat.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.1</t>
+    <t>0.8.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.0</t>
+    <t>0.8.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.2</t>
+    <t>0.8.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -84,14 +84,14 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Base profile for Norwegian Vital Signs Observation Heart Rate information.  
-To be used for recording the rate and associated attributes for a heart beat.</t>
+    <t>Domain profile for Norwegian Vital Signs Observation Heart Rate information.  
+To be used for recording the rate and associated attributes for a heart beat. This profile describes how to use a SNOMED code to indicate that the measurement is a general heart rate measurement, and not a more specific measurement of the actual heart beat or pulse reading.</t>
   </si>
   <si>
     <t>Purpose</t>
   </si>
   <si>
-    <t>Basisprofile for Norwegian  VitalSigns Observation Heart Rate information. Defined by The Norwegian Directorate of eHealth and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Heart Rate.</t>
+    <t>Domain profile for Norwegian  VitalSigns Observation Heart Rate information. Defined by The Norwegian Directorate of health and HL7 Norway. The profile adds Norwegian specific property information and further explanation of the use for the data-elements in a Norwegian VitalSigns Observation Heart Rate.</t>
   </si>
   <si>
     <t>Copyright</t>

--- a/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
+++ b/VitalSigns/TestBuild/StructureDefinition-NoDomainVitalSignsObservationHeartRate.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.8.3</t>
+    <t>0.8.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -2404,17 +2404,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.7890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="38.30078125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.9921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="179.23828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.6640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2423,28 +2423,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.70703125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.1640625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="54.6171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.15625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.16796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="247.40625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.10546875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="107.01953125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="42.34375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="91.75" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="36.3046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
